--- a/Julio/29 julio/jerez/Aspirantes ITSJ (1) (1).xlsx
+++ b/Julio/29 julio/jerez/Aspirantes ITSJ (1) (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Académico\Desktop\Subdirección\2024\Evaluatec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Julio\29 julio\jerez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4BABC9-1E2D-4F22-8C93-EA0829479693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B35708-F519-4D4C-946C-A9359C3F08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUATEC" sheetId="1" r:id="rId1"/>
@@ -928,9 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,6 +971,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -1318,9 +1318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,7 +1358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1464,7 +1464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1606,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1619,7 +1619,7 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1682,2227 +1682,2227 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J2" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="25"/>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J3" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="25"/>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="26"/>
+      <c r="G4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="G5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J6" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="26"/>
+      <c r="G6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J7" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="26"/>
+      <c r="G7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="26"/>
+      <c r="G8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J9" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="26"/>
+      <c r="G9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J10" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="26"/>
+      <c r="G10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J11" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="26"/>
+      <c r="G11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J12" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="G12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J13" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="26"/>
+      <c r="G13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J14" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="26"/>
+      <c r="G14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J14" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J15" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="26"/>
+      <c r="G15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J16" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="26"/>
+      <c r="G16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J17" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="26"/>
+      <c r="G17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J18" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="26"/>
+      <c r="G18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J18" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J19" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="26"/>
+      <c r="G19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J20" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="26"/>
+      <c r="G20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J21" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="26"/>
+      <c r="G21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J22" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="26"/>
+      <c r="G22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J23" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="26"/>
+      <c r="G23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J24" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="26"/>
+      <c r="G24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J25" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="26"/>
+      <c r="G25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="26"/>
+      <c r="G26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="26"/>
+      <c r="G27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J28" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="26"/>
+      <c r="G28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J29" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="26"/>
+      <c r="G29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J30" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="26"/>
+      <c r="G30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G31" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J31" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="26"/>
+      <c r="G31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J32" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="26"/>
+      <c r="G32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J33" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="26"/>
+      <c r="G33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="26"/>
+      <c r="G34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="26"/>
+      <c r="G35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="26"/>
+      <c r="G36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J37" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="26"/>
+      <c r="G37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="25"/>
     </row>
     <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J38" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="26"/>
+      <c r="G38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J39" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K39" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="26"/>
+      <c r="G39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J40" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="26"/>
+      <c r="G40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="26"/>
+      <c r="G41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J41" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="25"/>
     </row>
     <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J42" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="26"/>
+      <c r="G42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J42" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="25"/>
     </row>
     <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J43" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="26"/>
+      <c r="G43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J43" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J44" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K44" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="26"/>
+      <c r="G44" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J44" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G45" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J45" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K45" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="26"/>
+      <c r="G45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J45" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="25"/>
     </row>
     <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G46" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J46" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="26"/>
+      <c r="G46" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J46" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="25"/>
     </row>
     <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J47" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L47" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="26"/>
+      <c r="G47" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J48" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="26"/>
+      <c r="G48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J48" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="26"/>
+      <c r="G49" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J49" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J50" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="26"/>
+      <c r="G50" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J50" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="25"/>
     </row>
     <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J51" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="26"/>
+      <c r="G51" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="25"/>
     </row>
     <row r="52" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="26"/>
+      <c r="G52" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J52" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L53" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="26"/>
+      <c r="G53" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J53" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="25"/>
     </row>
     <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G54" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J54" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="26"/>
+      <c r="G54" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="25"/>
     </row>
     <row r="55" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>2747417304</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J55" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="26"/>
+      <c r="G55" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J55" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="25"/>
     </row>
     <row r="56" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>4941155557</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J56" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="26"/>
+      <c r="G56" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J56" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="25"/>
     </row>
     <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>4921024550</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G57" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J57" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="26"/>
+      <c r="G57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J57" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="25"/>
     </row>
     <row r="58" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>8445515321</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="20">
-        <v>45499</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="J58" s="22">
-        <v>45502</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="L58" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="26"/>
+      <c r="G58" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="19">
+        <v>45499</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J58" s="21">
+        <v>45502</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
